--- a/опт и Краснодар/2023/11,23/13,11,23 Сочи/дв 13,11,23 счрсч от филиала.xlsx
+++ b/опт и Краснодар/2023/11,23/13,11,23 Сочи/дв 13,11,23 счрсч от филиала.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\ПОКОМ\pokom_data\опт и Краснодар\2023\11,23\13,11,23 Сочи\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{063381B7-22ED-4516-B985-CCB0C58999F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BF75465-BBCC-40CE-95C0-474071A5F406}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="379" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TDSheet!$A$3:$X$76</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -497,10 +497,14 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
@@ -29697,7 +29701,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
+      <selection pane="bottomLeft" activeCell="Z12" sqref="Z12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
